--- a/data_suhu/september/25-09-23-Lokasi2.xlsx
+++ b/data_suhu/september/25-09-23-Lokasi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josev\Downloads\magang_res_cloned\data_suhu\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7E88B8-69BC-4AD3-AFDA-7F43BF95C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6CB040-78B1-4AA0-946E-57C11073E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:CS96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="BG24" sqref="BG24"/>
+      <selection activeCell="BD19" sqref="BD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,17 +3428,17 @@
         <v>0</v>
       </c>
       <c r="AW12" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX12" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY12" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ12" s="31">
         <f>AY12/100</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BA12" s="31">
         <v>29</v>
@@ -3494,11 +3494,11 @@
       </c>
       <c r="BO12" s="1">
         <f>AZ12</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BP12" s="25">
         <f>((BN12/BL12)^2)*BO12</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BQ12" s="3">
         <v>5</v>
@@ -3789,17 +3789,17 @@
         <v>0</v>
       </c>
       <c r="AW13" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX13" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY13" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ13" s="31">
         <f t="shared" ref="AZ13:AZ76" si="32">AY13/100</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BA13" s="31">
         <v>29</v>
@@ -3855,11 +3855,11 @@
       </c>
       <c r="BO13" s="1">
         <f t="shared" ref="BO13:BO16" si="40">AZ13</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BP13" s="25">
         <f>((BN13/BL13)^2)*BO13</f>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BQ13" s="3">
         <v>5</v>
@@ -4150,17 +4150,17 @@
         <v>0</v>
       </c>
       <c r="AW14" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX14" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY14" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ14" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BA14" s="31">
         <v>29</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="BG14" s="19">
         <f>BE14/(4840*ABS((BB14-AX14)))</f>
-        <v>4.1307946068345628E-3</v>
+        <v>3.3371250812517417E-3</v>
       </c>
       <c r="BH14" s="19">
         <f t="shared" si="36"/>
@@ -4197,37 +4197,37 @@
       </c>
       <c r="BJ14" s="25">
         <f t="shared" si="1"/>
-        <v>93.304130794606834</v>
+        <v>93.303337125081242</v>
       </c>
       <c r="BK14" s="25">
         <f t="shared" si="37"/>
-        <v>158.52465126134496</v>
+        <v>158.52330280888427</v>
       </c>
       <c r="BL14" s="1">
         <v>750</v>
       </c>
       <c r="BM14" s="1">
         <f t="shared" si="38"/>
-        <v>954.68073800757338</v>
+        <v>954.67261724162245</v>
       </c>
       <c r="BN14" s="25">
         <f t="shared" si="39"/>
-        <v>954.68073800757338</v>
+        <v>954.67261724162245</v>
       </c>
       <c r="BO14" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BP14" s="25">
         <f>((BN14/BL14)^2)*BO14</f>
-        <v>16.299022299022479</v>
+        <v>16.302633651816429</v>
       </c>
       <c r="BQ14" s="3">
         <v>5</v>
       </c>
       <c r="BR14" s="6">
         <f>((BN14/BL14)^3)*BQ14</f>
-        <v>10.31242242649931</v>
+        <v>10.312159268189234</v>
       </c>
       <c r="BS14" s="6">
         <f>BQ14*745.7</f>
@@ -4239,11 +4239,11 @@
       </c>
       <c r="BU14" s="6">
         <f>BR14*745.7</f>
-        <v>7689.9734034405365</v>
+        <v>7689.7771662887117</v>
       </c>
       <c r="BV14" s="15">
         <f t="shared" si="42"/>
-        <v>7.6899734034405363</v>
+        <v>7.689777166288712</v>
       </c>
       <c r="BW14" s="6">
         <f>BW13</f>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="BZ14" s="3">
         <f>100-((BH14/BJ14)*100)</f>
-        <v>21.439705428093561</v>
+        <v>21.439037167840027</v>
       </c>
       <c r="CA14" s="14">
         <f t="shared" si="44"/>
@@ -4511,17 +4511,17 @@
         <v>0</v>
       </c>
       <c r="AW15" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX15" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY15" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ15" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BA15" s="31">
         <v>29</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="BG15" s="19">
         <f>BE15/(4840*ABS((BB15-AX15)))</f>
-        <v>6.0345521212887519E-3</v>
+        <v>4.8751044665242835E-3</v>
       </c>
       <c r="BH15" s="19">
         <f t="shared" si="36"/>
@@ -4558,37 +4558,37 @@
       </c>
       <c r="BJ15" s="25">
         <f t="shared" si="1"/>
-        <v>73.306034552121289</v>
+        <v>73.304875104466518</v>
       </c>
       <c r="BK15" s="25">
         <f t="shared" si="37"/>
-        <v>124.54768576439959</v>
+        <v>124.54571585123965</v>
       </c>
       <c r="BL15" s="1">
         <v>750</v>
       </c>
       <c r="BM15" s="1">
         <f t="shared" si="38"/>
-        <v>750.0617450762752</v>
+        <v>750.04988169645139</v>
       </c>
       <c r="BN15" s="25">
         <f t="shared" si="39"/>
-        <v>750.0617450762752</v>
+        <v>750.04988169645139</v>
       </c>
       <c r="BO15" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BP15" s="25">
         <f>((BN15/BL15)^2)*BO15</f>
-        <v>10.060956367500953</v>
+        <v>10.063038430281129</v>
       </c>
       <c r="BQ15" s="3">
         <v>5</v>
       </c>
       <c r="BR15" s="6">
         <f>((BN15/BL15)^3)*BQ15</f>
-        <v>5.001235003193746</v>
+        <v>5.0009977002820625</v>
       </c>
       <c r="BS15" s="6">
         <f>BQ15*745.7</f>
@@ -4600,11 +4600,11 @@
       </c>
       <c r="BU15" s="6">
         <f>BR15*745.7</f>
-        <v>3729.4209418815767</v>
+        <v>3729.2439851003342</v>
       </c>
       <c r="BV15" s="15">
         <f t="shared" si="42"/>
-        <v>3.7294209418815769</v>
+        <v>3.7292439851003341</v>
       </c>
       <c r="BW15" s="6">
         <f>BW14</f>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="BZ15" s="3">
         <f>100-((BH15/BJ15)*100)</f>
-        <v>8.2319991227990386E-3</v>
+        <v>6.6504505458482299E-3</v>
       </c>
       <c r="CA15" s="14">
         <f t="shared" si="44"/>
@@ -4872,17 +4872,17 @@
         <v>170.6</v>
       </c>
       <c r="AW16" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX16" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY16" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ16" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BA16" s="31">
         <v>29</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="BG16" s="19">
         <f>BE16/(4840*ABS((BB16-AX16)))</f>
-        <v>5.5532247497097681E-3</v>
+        <v>4.4862568483610369E-3</v>
       </c>
       <c r="BH16" s="19">
         <f t="shared" si="36"/>
@@ -4919,37 +4919,37 @@
       </c>
       <c r="BJ16" s="25">
         <f t="shared" si="1"/>
-        <v>93.305553224749701</v>
+        <v>93.304486256848364</v>
       </c>
       <c r="BK16" s="25">
         <f t="shared" si="37"/>
-        <v>158.52706798438197</v>
+        <v>158.52525519524792</v>
       </c>
       <c r="BL16" s="1">
         <v>750</v>
       </c>
       <c r="BM16" s="1">
         <f t="shared" ref="BM16" si="52">(BJ16/BH16)*BL16</f>
-        <v>954.6952922041238</v>
+        <v>954.68437507007206</v>
       </c>
       <c r="BN16" s="25">
         <f t="shared" si="39"/>
-        <v>954.6952922041238</v>
+        <v>954.68437507007206</v>
       </c>
       <c r="BO16" s="1">
         <f t="shared" si="40"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BP16" s="25">
         <f>((BN16/BL16)^2)*BO16</f>
-        <v>16.299519263029168</v>
+        <v>16.303035223510616</v>
       </c>
       <c r="BQ16" s="3">
         <v>5</v>
       </c>
       <c r="BR16" s="6">
         <f>((BN16/BL16)^3)*BQ16</f>
-        <v>10.312894075203626</v>
+        <v>10.312540289151009</v>
       </c>
       <c r="BS16" s="6">
         <f>BQ16*745.7</f>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="BU16" s="6">
         <f>BR16*745.7</f>
-        <v>7690.3251118793451</v>
+        <v>7690.0612936199077</v>
       </c>
       <c r="BV16" s="15">
         <f>BU16/1000</f>
-        <v>7.6903251118793454</v>
+        <v>7.690061293619908</v>
       </c>
       <c r="BW16" s="6">
         <f>BW15</f>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="BZ16" s="3">
         <f>100-((BH16/BJ16)*100)</f>
-        <v>21.440903068825207</v>
+        <v>21.440004719365874</v>
       </c>
       <c r="CA16" s="14">
         <f t="shared" si="44"/>
@@ -5123,17 +5123,17 @@
         <v>13.648</v>
       </c>
       <c r="AW17" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX17" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY17" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ17" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE17" s="16"/>
       <c r="BF17" s="16"/>
@@ -5198,17 +5198,17 @@
         <v>1</v>
       </c>
       <c r="AW18" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX18" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY18" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ18" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE18" s="16"/>
       <c r="BF18" s="16"/>
@@ -5261,17 +5261,17 @@
         <v>1</v>
       </c>
       <c r="AW19" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX19" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY19" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ19" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE19" s="16"/>
       <c r="BF19" s="16"/>
@@ -5324,17 +5324,17 @@
         <v>1</v>
       </c>
       <c r="AW20" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX20" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY20" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ20" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE20" s="16"/>
       <c r="BF20" s="16"/>
@@ -5387,17 +5387,17 @@
         <v>1</v>
       </c>
       <c r="AW21" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX21" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY21" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ21" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE21" s="16"/>
       <c r="BF21" s="16"/>
@@ -5450,17 +5450,17 @@
         <v>1</v>
       </c>
       <c r="AW22" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX22" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY22" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ22" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE22" s="16"/>
       <c r="BF22" s="16"/>
@@ -5513,17 +5513,17 @@
         <v>1</v>
       </c>
       <c r="AW23" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX23" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY23" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ23" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
       <c r="BE23" s="16"/>
       <c r="BF23" s="16"/>
@@ -5570,17 +5570,17 @@
         <v>0.375</v>
       </c>
       <c r="AW24" s="31">
-        <v>27.98</v>
+        <v>27.28</v>
       </c>
       <c r="AX24" s="31">
-        <v>48.19</v>
+        <v>49.9</v>
       </c>
       <c r="AY24" s="31">
-        <v>1005.93</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ24" s="31">
         <f t="shared" si="32"/>
-        <v>10.0593</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="25" spans="1:97" x14ac:dyDescent="0.25">
@@ -5597,17 +5597,17 @@
         <v>0.37847222222222299</v>
       </c>
       <c r="AW25" s="31">
-        <v>28.09</v>
+        <v>27.28</v>
       </c>
       <c r="AX25" s="31">
-        <v>47.81</v>
+        <v>49.9</v>
       </c>
       <c r="AY25" s="31">
-        <v>1006</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ25" s="31">
         <f t="shared" si="32"/>
-        <v>10.06</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.25">
@@ -5624,17 +5624,17 @@
         <v>0.38194444444444497</v>
       </c>
       <c r="AW26" s="31">
-        <v>28.18</v>
+        <v>27.28</v>
       </c>
       <c r="AX26" s="31">
-        <v>47.63</v>
+        <v>49.9</v>
       </c>
       <c r="AY26" s="31">
-        <v>1006.07</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ26" s="31">
         <f t="shared" si="32"/>
-        <v>10.060700000000001</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.25">
@@ -5651,17 +5651,17 @@
         <v>0.38541666666666702</v>
       </c>
       <c r="AW27" s="31">
-        <v>28.23</v>
+        <v>27.28</v>
       </c>
       <c r="AX27" s="31">
-        <v>47.6</v>
+        <v>49.9</v>
       </c>
       <c r="AY27" s="31">
-        <v>1006.12</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ27" s="31">
         <f t="shared" si="32"/>
-        <v>10.061199999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.25">
@@ -5678,17 +5678,17 @@
         <v>0.38888888888889001</v>
       </c>
       <c r="AW28" s="31">
-        <v>28.21</v>
+        <v>27.28</v>
       </c>
       <c r="AX28" s="31">
-        <v>47.48</v>
+        <v>49.9</v>
       </c>
       <c r="AY28" s="31">
-        <v>1006.18</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ28" s="31">
         <f t="shared" si="32"/>
-        <v>10.0618</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.25">
@@ -5705,17 +5705,17 @@
         <v>0.39236111111111199</v>
       </c>
       <c r="AW29" s="31">
-        <v>28.17</v>
+        <v>27.28</v>
       </c>
       <c r="AX29" s="31">
-        <v>47.43</v>
+        <v>49.9</v>
       </c>
       <c r="AY29" s="31">
-        <v>1006.18</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ29" s="31">
         <f t="shared" si="32"/>
-        <v>10.0618</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.25">
@@ -5732,17 +5732,17 @@
         <v>0.39583333333333398</v>
       </c>
       <c r="AW30" s="31">
-        <v>28.13</v>
+        <v>27.28</v>
       </c>
       <c r="AX30" s="31">
-        <v>47.43</v>
+        <v>49.9</v>
       </c>
       <c r="AY30" s="31">
-        <v>1006.23</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ30" s="31">
         <f t="shared" si="32"/>
-        <v>10.0623</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.25">
@@ -5759,17 +5759,17 @@
         <v>0.39930555555555602</v>
       </c>
       <c r="AW31" s="31">
-        <v>28.08</v>
+        <v>27.28</v>
       </c>
       <c r="AX31" s="31">
-        <v>47.66</v>
+        <v>49.9</v>
       </c>
       <c r="AY31" s="31">
-        <v>1006.29</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ31" s="31">
         <f t="shared" si="32"/>
-        <v>10.062899999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.25">
@@ -5786,17 +5786,17 @@
         <v>0.40277777777777901</v>
       </c>
       <c r="AW32" s="31">
-        <v>28.04</v>
+        <v>27.28</v>
       </c>
       <c r="AX32" s="31">
-        <v>47.51</v>
+        <v>49.9</v>
       </c>
       <c r="AY32" s="31">
-        <v>1006.33</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ32" s="31">
         <f t="shared" si="32"/>
-        <v>10.0633</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
@@ -5813,17 +5813,17 @@
         <v>0.406250000000001</v>
       </c>
       <c r="AW33" s="31">
-        <v>27.97</v>
+        <v>27.28</v>
       </c>
       <c r="AX33" s="31">
-        <v>47.63</v>
+        <v>49.9</v>
       </c>
       <c r="AY33" s="31">
-        <v>1006.43</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ33" s="31">
         <f t="shared" si="32"/>
-        <v>10.064299999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
@@ -5840,17 +5840,17 @@
         <v>0.40972222222222299</v>
       </c>
       <c r="AW34" s="31">
-        <v>27.91</v>
+        <v>27.28</v>
       </c>
       <c r="AX34" s="31">
-        <v>47.69</v>
+        <v>49.9</v>
       </c>
       <c r="AY34" s="31">
-        <v>1006.49</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ34" s="31">
         <f t="shared" si="32"/>
-        <v>10.0649</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
@@ -5867,17 +5867,17 @@
         <v>0.41319444444444497</v>
       </c>
       <c r="AW35" s="31">
-        <v>27.94</v>
+        <v>27.28</v>
       </c>
       <c r="AX35" s="31">
-        <v>47.71</v>
+        <v>49.9</v>
       </c>
       <c r="AY35" s="31">
-        <v>1006.57</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ35" s="31">
         <f t="shared" si="32"/>
-        <v>10.0657</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
@@ -5894,17 +5894,17 @@
         <v>0.41666666666666802</v>
       </c>
       <c r="AW36" s="31">
-        <v>28.01</v>
+        <v>27.28</v>
       </c>
       <c r="AX36" s="31">
-        <v>47.6</v>
+        <v>49.9</v>
       </c>
       <c r="AY36" s="31">
-        <v>1006.66</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ36" s="31">
         <f t="shared" si="32"/>
-        <v>10.066599999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
@@ -5921,17 +5921,17 @@
         <v>0.42013888888889001</v>
       </c>
       <c r="AW37" s="31">
-        <v>28.09</v>
+        <v>27.28</v>
       </c>
       <c r="AX37" s="31">
-        <v>47.46</v>
+        <v>49.9</v>
       </c>
       <c r="AY37" s="31">
-        <v>1006.66</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ37" s="31">
         <f t="shared" si="32"/>
-        <v>10.066599999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
@@ -5948,17 +5948,17 @@
         <v>0.42361111111111199</v>
       </c>
       <c r="AW38" s="31">
-        <v>28.13</v>
+        <v>27.28</v>
       </c>
       <c r="AX38" s="31">
-        <v>47.32</v>
+        <v>49.9</v>
       </c>
       <c r="AY38" s="31">
-        <v>1006.71</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ38" s="31">
         <f t="shared" si="32"/>
-        <v>10.0671</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
@@ -5975,17 +5975,17 @@
         <v>0.42708333333333398</v>
       </c>
       <c r="AW39" s="31">
-        <v>28.07</v>
+        <v>27.28</v>
       </c>
       <c r="AX39" s="31">
-        <v>47.32</v>
+        <v>49.9</v>
       </c>
       <c r="AY39" s="31">
-        <v>1006.72</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ39" s="31">
         <f t="shared" si="32"/>
-        <v>10.0672</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
@@ -6002,17 +6002,17 @@
         <v>0.43055555555555702</v>
       </c>
       <c r="AW40" s="31">
-        <v>27.99</v>
+        <v>27.28</v>
       </c>
       <c r="AX40" s="31">
-        <v>47.52</v>
+        <v>49.9</v>
       </c>
       <c r="AY40" s="31">
-        <v>1006.78</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ40" s="31">
         <f t="shared" si="32"/>
-        <v>10.0678</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
@@ -6029,17 +6029,17 @@
         <v>0.43402777777777901</v>
       </c>
       <c r="AW41" s="31">
-        <v>28.02</v>
+        <v>27.28</v>
       </c>
       <c r="AX41" s="31">
-        <v>47.56</v>
+        <v>49.9</v>
       </c>
       <c r="AY41" s="31">
-        <v>1006.8</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ41" s="31">
         <f t="shared" si="32"/>
-        <v>10.068</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
@@ -6056,17 +6056,17 @@
         <v>0.437500000000001</v>
       </c>
       <c r="AW42" s="31">
-        <v>28.08</v>
+        <v>27.28</v>
       </c>
       <c r="AX42" s="31">
-        <v>47.47</v>
+        <v>49.9</v>
       </c>
       <c r="AY42" s="31">
-        <v>1006.9</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ42" s="31">
         <f t="shared" si="32"/>
-        <v>10.068999999999999</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
@@ -6083,17 +6083,17 @@
         <v>0.44097222222222299</v>
       </c>
       <c r="AW43" s="31">
-        <v>28.13</v>
+        <v>27.28</v>
       </c>
       <c r="AX43" s="31">
-        <v>47.36</v>
+        <v>49.9</v>
       </c>
       <c r="AY43" s="31">
-        <v>1007.03</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ43" s="31">
         <f t="shared" si="32"/>
-        <v>10.0703</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
@@ -6110,17 +6110,17 @@
         <v>0.44444444444444497</v>
       </c>
       <c r="AW44" s="31">
-        <v>28.07</v>
+        <v>27.28</v>
       </c>
       <c r="AX44" s="31">
-        <v>47.36</v>
+        <v>49.9</v>
       </c>
       <c r="AY44" s="31">
-        <v>1007.1</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ44" s="31">
         <f t="shared" si="32"/>
-        <v>10.071</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
@@ -6137,17 +6137,17 @@
         <v>0.44791666666666802</v>
       </c>
       <c r="AW45" s="31">
-        <v>27.98</v>
+        <v>27.29</v>
       </c>
       <c r="AX45" s="31">
-        <v>47.55</v>
+        <v>49.89</v>
       </c>
       <c r="AY45" s="31">
-        <v>1007.18</v>
+        <v>1006.17</v>
       </c>
       <c r="AZ45" s="31">
         <f t="shared" si="32"/>
-        <v>10.0718</v>
+        <v>10.0617</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
@@ -6164,17 +6164,17 @@
         <v>0.45138888888889001</v>
       </c>
       <c r="AW46" s="31">
-        <v>27.88</v>
+        <v>27.31</v>
       </c>
       <c r="AX46" s="31">
-        <v>47.76</v>
+        <v>49.82</v>
       </c>
       <c r="AY46" s="31">
-        <v>1007.24</v>
+        <v>1006.28</v>
       </c>
       <c r="AZ46" s="31">
         <f t="shared" si="32"/>
-        <v>10.0724</v>
+        <v>10.062799999999999</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
@@ -6191,17 +6191,17 @@
         <v>0.45486111111111199</v>
       </c>
       <c r="AW47" s="31">
-        <v>27.82</v>
+        <v>27.33</v>
       </c>
       <c r="AX47" s="31">
-        <v>47.92</v>
+        <v>49.73</v>
       </c>
       <c r="AY47" s="31">
-        <v>1007.29</v>
+        <v>1006.34</v>
       </c>
       <c r="AZ47" s="31">
         <f t="shared" si="32"/>
-        <v>10.072899999999999</v>
+        <v>10.0634</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
@@ -6218,17 +6218,17 @@
         <v>0.45833333333333498</v>
       </c>
       <c r="AW48" s="31">
-        <v>27.77</v>
+        <v>27.37</v>
       </c>
       <c r="AX48" s="31">
-        <v>48.08</v>
+        <v>49.7</v>
       </c>
       <c r="AY48" s="31">
-        <v>1007.41</v>
+        <v>1006.4</v>
       </c>
       <c r="AZ48" s="31">
         <f t="shared" si="32"/>
-        <v>10.0741</v>
+        <v>10.064</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
@@ -6245,17 +6245,17 @@
         <v>0.46180555555555702</v>
       </c>
       <c r="AW49" s="31">
-        <v>27.73</v>
+        <v>27.41</v>
       </c>
       <c r="AX49" s="31">
-        <v>48.23</v>
+        <v>49.64</v>
       </c>
       <c r="AY49" s="31">
-        <v>1007.45</v>
+        <v>1006.56</v>
       </c>
       <c r="AZ49" s="31">
         <f t="shared" si="32"/>
-        <v>10.0745</v>
+        <v>10.0656</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
@@ -6272,17 +6272,17 @@
         <v>0.46527777777777901</v>
       </c>
       <c r="AW50" s="31">
-        <v>27.7</v>
+        <v>27.44</v>
       </c>
       <c r="AX50" s="31">
-        <v>48.37</v>
+        <v>49.53</v>
       </c>
       <c r="AY50" s="31">
-        <v>1007.47</v>
+        <v>1006.65</v>
       </c>
       <c r="AZ50" s="31">
         <f t="shared" si="32"/>
-        <v>10.0747</v>
+        <v>10.0665</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
@@ -6299,17 +6299,17 @@
         <v>0.468750000000001</v>
       </c>
       <c r="AW51" s="31">
-        <v>27.68</v>
+        <v>27.48</v>
       </c>
       <c r="AX51" s="31">
-        <v>48.45</v>
+        <v>49.52</v>
       </c>
       <c r="AY51" s="31">
-        <v>1007.55</v>
+        <v>1006.75</v>
       </c>
       <c r="AZ51" s="31">
         <f t="shared" si="32"/>
-        <v>10.0755</v>
+        <v>10.067500000000001</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
@@ -6326,17 +6326,17 @@
         <v>0.47222222222222399</v>
       </c>
       <c r="AW52" s="31">
-        <v>27.68</v>
+        <v>27.5</v>
       </c>
       <c r="AX52" s="31">
-        <v>48.55</v>
+        <v>49.46</v>
       </c>
       <c r="AY52" s="31">
-        <v>1007.66</v>
+        <v>1006.8</v>
       </c>
       <c r="AZ52" s="31">
         <f t="shared" si="32"/>
-        <v>10.076599999999999</v>
+        <v>10.068</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
@@ -6353,17 +6353,17 @@
         <v>0.47569444444444597</v>
       </c>
       <c r="AW53" s="31">
-        <v>27.68</v>
+        <v>27.55</v>
       </c>
       <c r="AX53" s="31">
-        <v>48.61</v>
+        <v>49.45</v>
       </c>
       <c r="AY53" s="31">
-        <v>1007.77</v>
+        <v>1006.86</v>
       </c>
       <c r="AZ53" s="31">
         <f t="shared" si="32"/>
-        <v>10.0777</v>
+        <v>10.0686</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -6380,17 +6380,17 @@
         <v>0.47916666666666802</v>
       </c>
       <c r="AW54" s="31">
-        <v>27.68</v>
+        <v>27.6</v>
       </c>
       <c r="AX54" s="31">
-        <v>48.66</v>
+        <v>49.37</v>
       </c>
       <c r="AY54" s="31">
-        <v>1007.87</v>
+        <v>1006.95</v>
       </c>
       <c r="AZ54" s="31">
         <f t="shared" si="32"/>
-        <v>10.0787</v>
+        <v>10.0695</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
@@ -6407,17 +6407,17 @@
         <v>0.48263888888889001</v>
       </c>
       <c r="AW55" s="31">
-        <v>27.68</v>
+        <v>27.65</v>
       </c>
       <c r="AX55" s="31">
-        <v>48.7</v>
+        <v>49.27</v>
       </c>
       <c r="AY55" s="31">
-        <v>1007.95</v>
+        <v>1007.03</v>
       </c>
       <c r="AZ55" s="31">
         <f t="shared" si="32"/>
-        <v>10.079500000000001</v>
+        <v>10.0703</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
@@ -6434,17 +6434,17 @@
         <v>0.48611111111111299</v>
       </c>
       <c r="AW56" s="31">
-        <v>27.67</v>
+        <v>27.73</v>
       </c>
       <c r="AX56" s="31">
-        <v>48.74</v>
+        <v>49.22</v>
       </c>
       <c r="AY56" s="31">
-        <v>1007.98</v>
+        <v>1007.14</v>
       </c>
       <c r="AZ56" s="31">
         <f t="shared" si="32"/>
-        <v>10.079800000000001</v>
+        <v>10.071400000000001</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
@@ -6461,17 +6461,17 @@
         <v>0.48958333333333498</v>
       </c>
       <c r="AW57" s="31">
-        <v>27.68</v>
+        <v>27.81</v>
       </c>
       <c r="AX57" s="31">
-        <v>48.75</v>
+        <v>49.06</v>
       </c>
       <c r="AY57" s="31">
-        <v>1008.02</v>
+        <v>1007.22</v>
       </c>
       <c r="AZ57" s="31">
         <f t="shared" si="32"/>
-        <v>10.0802</v>
+        <v>10.0722</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
@@ -6488,17 +6488,17 @@
         <v>0.49305555555555702</v>
       </c>
       <c r="AW58" s="31">
-        <v>27.68</v>
+        <v>27.86</v>
       </c>
       <c r="AX58" s="31">
-        <v>48.82</v>
+        <v>48.95</v>
       </c>
       <c r="AY58" s="31">
-        <v>1008.09</v>
+        <v>1007.31</v>
       </c>
       <c r="AZ58" s="31">
         <f t="shared" si="32"/>
-        <v>10.0809</v>
+        <v>10.0731</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
@@ -6515,17 +6515,17 @@
         <v>0.49652777777777901</v>
       </c>
       <c r="AW59" s="31">
-        <v>27.68</v>
+        <v>27.91</v>
       </c>
       <c r="AX59" s="31">
-        <v>48.87</v>
+        <v>48.86</v>
       </c>
       <c r="AY59" s="31">
-        <v>1008.21</v>
+        <v>1007.38</v>
       </c>
       <c r="AZ59" s="31">
         <f t="shared" si="32"/>
-        <v>10.082100000000001</v>
+        <v>10.0738</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -6542,17 +6542,17 @@
         <v>0.500000000000002</v>
       </c>
       <c r="AW60" s="31">
-        <v>27.69</v>
+        <v>27.94</v>
       </c>
       <c r="AX60" s="31">
-        <v>48.93</v>
+        <v>48.74</v>
       </c>
       <c r="AY60" s="31">
-        <v>1008.3</v>
+        <v>1007.52</v>
       </c>
       <c r="AZ60" s="31">
         <f t="shared" si="32"/>
-        <v>10.083</v>
+        <v>10.075200000000001</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
@@ -6569,17 +6569,17 @@
         <v>0.50347222222222399</v>
       </c>
       <c r="AW61" s="31">
-        <v>27.7</v>
+        <v>27.93</v>
       </c>
       <c r="AX61" s="31">
-        <v>48.96</v>
+        <v>48.77</v>
       </c>
       <c r="AY61" s="31">
-        <v>1008.39</v>
+        <v>1007.63</v>
       </c>
       <c r="AZ61" s="31">
         <f t="shared" si="32"/>
-        <v>10.0839</v>
+        <v>10.0763</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.25">
@@ -6596,17 +6596,17 @@
         <v>0.50694444444444597</v>
       </c>
       <c r="AW62" s="31">
-        <v>27.7</v>
+        <v>27.89</v>
       </c>
       <c r="AX62" s="31">
-        <v>49.19</v>
+        <v>48.82</v>
       </c>
       <c r="AY62" s="31">
-        <v>1008.42</v>
+        <v>1007.67</v>
       </c>
       <c r="AZ62" s="31">
         <f t="shared" si="32"/>
-        <v>10.084199999999999</v>
+        <v>10.076699999999999</v>
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
@@ -6623,17 +6623,17 @@
         <v>0.51041666666666896</v>
       </c>
       <c r="AW63" s="31">
-        <v>27.7</v>
+        <v>27.85</v>
       </c>
       <c r="AX63" s="31">
-        <v>49.26</v>
+        <v>48.89</v>
       </c>
       <c r="AY63" s="31">
-        <v>1008.48</v>
+        <v>1007.72</v>
       </c>
       <c r="AZ63" s="31">
         <f t="shared" si="32"/>
-        <v>10.0848</v>
+        <v>10.077199999999999</v>
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
@@ -6650,17 +6650,17 @@
         <v>0.51388888888889095</v>
       </c>
       <c r="AW64" s="31">
-        <v>27.71</v>
+        <v>27.83</v>
       </c>
       <c r="AX64" s="31">
-        <v>49.3</v>
+        <v>48.94</v>
       </c>
       <c r="AY64" s="31">
-        <v>1008.55</v>
+        <v>1007.87</v>
       </c>
       <c r="AZ64" s="31">
         <f t="shared" si="32"/>
-        <v>10.0855</v>
+        <v>10.0787</v>
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
@@ -6677,17 +6677,17 @@
         <v>0.51736111111111305</v>
       </c>
       <c r="AW65" s="31">
-        <v>27.71</v>
+        <v>27.81</v>
       </c>
       <c r="AX65" s="31">
-        <v>49.37</v>
+        <v>49.02</v>
       </c>
       <c r="AY65" s="31">
-        <v>1008.68</v>
+        <v>1007.97</v>
       </c>
       <c r="AZ65" s="31">
         <f t="shared" si="32"/>
-        <v>10.0868</v>
+        <v>10.079700000000001</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
@@ -6704,17 +6704,17 @@
         <v>0.52083333333333504</v>
       </c>
       <c r="AW66" s="31">
-        <v>27.71</v>
+        <v>27.81</v>
       </c>
       <c r="AX66" s="31">
-        <v>49.66</v>
+        <v>49.07</v>
       </c>
       <c r="AY66" s="31">
-        <v>1008.77</v>
+        <v>1008.1</v>
       </c>
       <c r="AZ66" s="31">
         <f t="shared" si="32"/>
-        <v>10.0877</v>
+        <v>10.081</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.25">
@@ -6731,17 +6731,17 @@
         <v>0.52430555555555802</v>
       </c>
       <c r="AW67" s="31">
-        <v>27.72</v>
+        <v>27.86</v>
       </c>
       <c r="AX67" s="31">
-        <v>49.64</v>
+        <v>49.07</v>
       </c>
       <c r="AY67" s="31">
-        <v>1008.8</v>
+        <v>1008.16</v>
       </c>
       <c r="AZ67" s="31">
         <f t="shared" si="32"/>
-        <v>10.087999999999999</v>
+        <v>10.0816</v>
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.25">
@@ -6758,17 +6758,17 @@
         <v>0.52777777777778001</v>
       </c>
       <c r="AW68" s="31">
-        <v>27.72</v>
+        <v>27.92</v>
       </c>
       <c r="AX68" s="31">
-        <v>49.74</v>
+        <v>48.98</v>
       </c>
       <c r="AY68" s="31">
-        <v>1008.88</v>
+        <v>1008.2</v>
       </c>
       <c r="AZ68" s="31">
         <f t="shared" si="32"/>
-        <v>10.088799999999999</v>
+        <v>10.082000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.25">
@@ -6785,17 +6785,17 @@
         <v>0.531250000000002</v>
       </c>
       <c r="AW69" s="31">
-        <v>27.73</v>
+        <v>28.01</v>
       </c>
       <c r="AX69" s="31">
-        <v>49.74</v>
+        <v>48.87</v>
       </c>
       <c r="AY69" s="31">
-        <v>1008.93</v>
+        <v>1008.27</v>
       </c>
       <c r="AZ69" s="31">
         <f t="shared" si="32"/>
-        <v>10.0893</v>
+        <v>10.082699999999999</v>
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
@@ -6812,17 +6812,17 @@
         <v>0.53472222222222399</v>
       </c>
       <c r="AW70" s="31">
-        <v>27.73</v>
+        <v>28.1</v>
       </c>
       <c r="AX70" s="31">
-        <v>49.76</v>
+        <v>48.68</v>
       </c>
       <c r="AY70" s="31">
-        <v>1009</v>
+        <v>1008.22</v>
       </c>
       <c r="AZ70" s="31">
         <f t="shared" si="32"/>
-        <v>10.09</v>
+        <v>10.0822</v>
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.25">
@@ -6839,17 +6839,17 @@
         <v>0.53819444444444697</v>
       </c>
       <c r="AW71" s="31">
-        <v>27.74</v>
+        <v>28.14</v>
       </c>
       <c r="AX71" s="31">
-        <v>49.94</v>
+        <v>48.57</v>
       </c>
       <c r="AY71" s="31">
-        <v>1009.01</v>
+        <v>1008.22</v>
       </c>
       <c r="AZ71" s="31">
         <f t="shared" si="32"/>
-        <v>10.0901</v>
+        <v>10.0822</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.25">
@@ -6866,17 +6866,17 @@
         <v>0.54166666666666896</v>
       </c>
       <c r="AW72" s="31">
-        <v>27.73</v>
+        <v>28.12</v>
       </c>
       <c r="AX72" s="31">
-        <v>49.93</v>
+        <v>48.55</v>
       </c>
       <c r="AY72" s="31">
-        <v>1009.06</v>
+        <v>1008.25</v>
       </c>
       <c r="AZ72" s="31">
         <f t="shared" si="32"/>
-        <v>10.0906</v>
+        <v>10.0825</v>
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.25">
@@ -6893,17 +6893,17 @@
         <v>0.54513888888889095</v>
       </c>
       <c r="AW73" s="31">
-        <v>27.74</v>
+        <v>28.07</v>
       </c>
       <c r="AX73" s="31">
-        <v>49.93</v>
+        <v>48.62</v>
       </c>
       <c r="AY73" s="31">
-        <v>1009.1</v>
+        <v>1008.26</v>
       </c>
       <c r="AZ73" s="31">
         <f t="shared" si="32"/>
-        <v>10.091000000000001</v>
+        <v>10.082599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.25">
@@ -6920,17 +6920,17 @@
         <v>0.54861111111111305</v>
       </c>
       <c r="AW74" s="31">
-        <v>27.75</v>
+        <v>28.01</v>
       </c>
       <c r="AX74" s="31">
-        <v>49.96</v>
+        <v>48.77</v>
       </c>
       <c r="AY74" s="31">
-        <v>1009.11</v>
+        <v>1008.23</v>
       </c>
       <c r="AZ74" s="31">
         <f t="shared" si="32"/>
-        <v>10.091100000000001</v>
+        <v>10.0823</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
@@ -6947,17 +6947,17 @@
         <v>0.55208333333333603</v>
       </c>
       <c r="AW75" s="31">
-        <v>27.75</v>
+        <v>27.97</v>
       </c>
       <c r="AX75" s="31">
-        <v>50.01</v>
+        <v>48.88</v>
       </c>
       <c r="AY75" s="31">
-        <v>1009.13</v>
+        <v>1008.34</v>
       </c>
       <c r="AZ75" s="31">
         <f t="shared" si="32"/>
-        <v>10.0913</v>
+        <v>10.083400000000001</v>
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.25">
@@ -6974,17 +6974,17 @@
         <v>0.55555555555555802</v>
       </c>
       <c r="AW76" s="31">
-        <v>27.75</v>
+        <v>27.95</v>
       </c>
       <c r="AX76" s="31">
-        <v>50.05</v>
+        <v>48.98</v>
       </c>
       <c r="AY76" s="31">
-        <v>1009.17</v>
+        <v>1008.22</v>
       </c>
       <c r="AZ76" s="31">
         <f t="shared" si="32"/>
-        <v>10.091699999999999</v>
+        <v>10.0822</v>
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.25">
@@ -7001,17 +7001,17 @@
         <v>0.55902777777778001</v>
       </c>
       <c r="AW77" s="31">
-        <v>27.75</v>
+        <v>27.93</v>
       </c>
       <c r="AX77" s="31">
-        <v>50.01</v>
+        <v>49.05</v>
       </c>
       <c r="AY77" s="31">
-        <v>1009.21</v>
+        <v>1008.17</v>
       </c>
       <c r="AZ77" s="31">
         <f t="shared" ref="AZ77:AZ96" si="55">AY77/100</f>
-        <v>10.0921</v>
+        <v>10.0817</v>
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.25">
@@ -7028,17 +7028,17 @@
         <v>0.562500000000003</v>
       </c>
       <c r="AW78" s="31">
-        <v>27.76</v>
+        <v>27.93</v>
       </c>
       <c r="AX78" s="31">
-        <v>50.02</v>
+        <v>49.08</v>
       </c>
       <c r="AY78" s="31">
-        <v>1009.24</v>
+        <v>1008.26</v>
       </c>
       <c r="AZ78" s="31">
         <f t="shared" si="55"/>
-        <v>10.0924</v>
+        <v>10.082599999999999</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.25">
@@ -7055,17 +7055,17 @@
         <v>0.56597222222222499</v>
       </c>
       <c r="AW79" s="31">
-        <v>27.77</v>
+        <v>27.96</v>
       </c>
       <c r="AX79" s="31">
-        <v>50.11</v>
+        <v>49.17</v>
       </c>
       <c r="AY79" s="31">
-        <v>1009.24</v>
+        <v>1008.25</v>
       </c>
       <c r="AZ79" s="31">
         <f t="shared" si="55"/>
-        <v>10.0924</v>
+        <v>10.0825</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.25">
@@ -7082,17 +7082,17 @@
         <v>0.56944444444444697</v>
       </c>
       <c r="AW80" s="31">
-        <v>27.77</v>
+        <v>28.07</v>
       </c>
       <c r="AX80" s="31">
-        <v>50.15</v>
+        <v>49.05</v>
       </c>
       <c r="AY80" s="31">
-        <v>1009.25</v>
+        <v>1008.23</v>
       </c>
       <c r="AZ80" s="31">
         <f t="shared" si="55"/>
-        <v>10.092499999999999</v>
+        <v>10.0823</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.25">
@@ -7109,17 +7109,17 @@
         <v>0.57291666666666896</v>
       </c>
       <c r="AW81" s="31">
-        <v>27.78</v>
+        <v>28.19</v>
       </c>
       <c r="AX81" s="31">
-        <v>50.12</v>
+        <v>48.82</v>
       </c>
       <c r="AY81" s="31">
-        <v>1009.33</v>
+        <v>1008.25</v>
       </c>
       <c r="AZ81" s="31">
         <f t="shared" si="55"/>
-        <v>10.093300000000001</v>
+        <v>10.0825</v>
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
@@ -7136,17 +7136,17 @@
         <v>0.57638888888889195</v>
       </c>
       <c r="AW82" s="31">
-        <v>27.78</v>
+        <v>28.29</v>
       </c>
       <c r="AX82" s="31">
-        <v>50.15</v>
+        <v>48.63</v>
       </c>
       <c r="AY82" s="31">
-        <v>1009.32</v>
+        <v>1008.34</v>
       </c>
       <c r="AZ82" s="31">
         <f t="shared" si="55"/>
-        <v>10.093200000000001</v>
+        <v>10.083400000000001</v>
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.25">
@@ -7163,17 +7163,17 @@
         <v>0.57986111111111405</v>
       </c>
       <c r="AW83" s="31">
-        <v>27.79</v>
+        <v>28.29</v>
       </c>
       <c r="AX83" s="31">
-        <v>50.04</v>
+        <v>48.52</v>
       </c>
       <c r="AY83" s="31">
-        <v>1009.42</v>
+        <v>1008.35</v>
       </c>
       <c r="AZ83" s="31">
         <f t="shared" si="55"/>
-        <v>10.094199999999999</v>
+        <v>10.083500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.25">
@@ -7190,17 +7190,17 @@
         <v>0.58333333333333603</v>
       </c>
       <c r="AW84" s="31">
-        <v>27.79</v>
+        <v>28.23</v>
       </c>
       <c r="AX84" s="31">
-        <v>50.12</v>
+        <v>48.56</v>
       </c>
       <c r="AY84" s="31">
-        <v>1009.42</v>
+        <v>1008.31</v>
       </c>
       <c r="AZ84" s="31">
         <f t="shared" si="55"/>
-        <v>10.094199999999999</v>
+        <v>10.0831</v>
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.25">
@@ -7217,17 +7217,17 @@
         <v>0.58680555555555802</v>
       </c>
       <c r="AW85" s="31">
-        <v>27.79</v>
+        <v>28.18</v>
       </c>
       <c r="AX85" s="31">
-        <v>50.23</v>
+        <v>48.7</v>
       </c>
       <c r="AY85" s="31">
-        <v>1009.47</v>
+        <v>1008.37</v>
       </c>
       <c r="AZ85" s="31">
         <f t="shared" si="55"/>
-        <v>10.0947</v>
+        <v>10.0837</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.25">
@@ -7244,17 +7244,17 @@
         <v>0.59027777777778101</v>
       </c>
       <c r="AW86" s="31">
-        <v>27.8</v>
+        <v>28.13</v>
       </c>
       <c r="AX86" s="31">
-        <v>50.18</v>
+        <v>48.81</v>
       </c>
       <c r="AY86" s="31">
-        <v>1009.43</v>
+        <v>1008.4</v>
       </c>
       <c r="AZ86" s="31">
         <f t="shared" si="55"/>
-        <v>10.094299999999999</v>
+        <v>10.084</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
@@ -7271,17 +7271,17 @@
         <v>0.593750000000003</v>
       </c>
       <c r="AW87" s="31">
-        <v>27.81</v>
+        <v>28.09</v>
       </c>
       <c r="AX87" s="31">
-        <v>50.17</v>
+        <v>48.9</v>
       </c>
       <c r="AY87" s="31">
-        <v>1009.46</v>
+        <v>1008.41</v>
       </c>
       <c r="AZ87" s="31">
         <f t="shared" si="55"/>
-        <v>10.0946</v>
+        <v>10.084099999999999</v>
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.25">
@@ -7298,17 +7298,17 @@
         <v>0.59722222222222499</v>
       </c>
       <c r="AW88" s="31">
-        <v>27.86</v>
+        <v>28.06</v>
       </c>
       <c r="AX88" s="31">
-        <v>50.23</v>
+        <v>48.99</v>
       </c>
       <c r="AY88" s="31">
-        <v>1009.5</v>
+        <v>1008.47</v>
       </c>
       <c r="AZ88" s="31">
         <f t="shared" si="55"/>
-        <v>10.095000000000001</v>
+        <v>10.0847</v>
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.25">
@@ -7325,17 +7325,17 @@
         <v>0.60069444444444697</v>
       </c>
       <c r="AW89" s="31">
-        <v>28.01</v>
+        <v>28.05</v>
       </c>
       <c r="AX89" s="31">
-        <v>50.07</v>
+        <v>49.04</v>
       </c>
       <c r="AY89" s="31">
-        <v>1009.55</v>
+        <v>1008.5</v>
       </c>
       <c r="AZ89" s="31">
         <f t="shared" si="55"/>
-        <v>10.095499999999999</v>
+        <v>10.085000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.25">
@@ -7352,17 +7352,17 @@
         <v>0.60416666666666996</v>
       </c>
       <c r="AW90" s="31">
-        <v>28.14</v>
+        <v>28.04</v>
       </c>
       <c r="AX90" s="31">
-        <v>49.75</v>
+        <v>49.12</v>
       </c>
       <c r="AY90" s="31">
-        <v>1009.51</v>
+        <v>1008.54</v>
       </c>
       <c r="AZ90" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.0854</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.25">
@@ -7379,17 +7379,17 @@
         <v>0.60763888888889195</v>
       </c>
       <c r="AW91" s="31">
-        <v>28.14</v>
+        <v>28.04</v>
       </c>
       <c r="AX91" s="31">
-        <v>49.75</v>
+        <v>49.15</v>
       </c>
       <c r="AY91" s="31">
-        <v>1009.51</v>
+        <v>1008.52</v>
       </c>
       <c r="AZ91" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.0852</v>
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.25">
@@ -7406,17 +7406,17 @@
         <v>0.61111111111111405</v>
       </c>
       <c r="AW92" s="31">
-        <v>28.14</v>
+        <v>28.04</v>
       </c>
       <c r="AX92" s="31">
-        <v>49.75</v>
+        <v>49.19</v>
       </c>
       <c r="AY92" s="31">
-        <v>1009.51</v>
+        <v>1008.58</v>
       </c>
       <c r="AZ92" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.085800000000001</v>
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.25">
@@ -7433,17 +7433,17 @@
         <v>0.61458333333333603</v>
       </c>
       <c r="AW93" s="31">
-        <v>28.14</v>
+        <v>28.03</v>
       </c>
       <c r="AX93" s="31">
-        <v>49.75</v>
+        <v>49.21</v>
       </c>
       <c r="AY93" s="31">
-        <v>1009.51</v>
+        <v>1008.57</v>
       </c>
       <c r="AZ93" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.085700000000001</v>
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.25">
@@ -7460,17 +7460,17 @@
         <v>0.61805555555555902</v>
       </c>
       <c r="AW94" s="31">
-        <v>28.14</v>
+        <v>28.03</v>
       </c>
       <c r="AX94" s="31">
-        <v>49.75</v>
+        <v>49.23</v>
       </c>
       <c r="AY94" s="31">
-        <v>1009.51</v>
+        <v>1008.59</v>
       </c>
       <c r="AZ94" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.085900000000001</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.25">
@@ -7487,17 +7487,17 @@
         <v>0.62152777777778101</v>
       </c>
       <c r="AW95" s="31">
-        <v>28.14</v>
+        <v>28.04</v>
       </c>
       <c r="AX95" s="31">
-        <v>49.75</v>
+        <v>49.26</v>
       </c>
       <c r="AY95" s="31">
-        <v>1009.51</v>
+        <v>1008.56</v>
       </c>
       <c r="AZ95" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.085599999999999</v>
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.25">
@@ -7514,17 +7514,17 @@
         <v>0.625000000000003</v>
       </c>
       <c r="AW96" s="31">
-        <v>28.14</v>
+        <v>28.05</v>
       </c>
       <c r="AX96" s="31">
-        <v>49.75</v>
+        <v>49.29</v>
       </c>
       <c r="AY96" s="31">
-        <v>1009.51</v>
+        <v>1008.59</v>
       </c>
       <c r="AZ96" s="31">
         <f t="shared" si="55"/>
-        <v>10.0951</v>
+        <v>10.085900000000001</v>
       </c>
     </row>
   </sheetData>
